--- a/questions.xlsx
+++ b/questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,6 +915,756 @@
         <v>2</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Em lógica de programação, qual estrutura é usada para repetir um bloco de código várias vezes?</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Condição</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Função</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Laço de repetição</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>O que significa o operador '==' em linguagens como Python, C e VisualG?</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Atribuição</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Comparação de igualdade</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Concatenação</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Incremento</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Em Python, qual é o resultado de: print(2 * 3 ** 2)?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Qual é o tipo de dado usado para armazenar valores verdadeiros ou falsos?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>String</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Inteiro</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Booleano</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Caractere</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Em C, qual comando finaliza uma instrução?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Dois pontos</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ponto e vírgula</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Vírgula</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Aspas</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Em VisualG, qual estrutura é usada para tomada de decisão?</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Enquanto</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Para</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Repita</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Se...Então...Senão</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Qual é a saída do código Python: print(len('programacao'))?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Em lógica de programação, uma variável serve para:</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Armazenar dados temporários</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Criar gráficos</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Apagar funções</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Organizar pastas</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Em C, qual destas é uma estrutura de repetição?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>switch</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>typedef</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Em Python, qual destes operadores representa 'OU lógico'?</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>&amp;&amp;</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>||</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>or</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>&amp;</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>O que significa 'indentação' em Python?</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Uso de ponto e vírgula</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Espaços para definir blocos de código</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Fechar chaves</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Declarar variáveis</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Em C, qual palavra-chave é usada para declarar uma constante?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>const</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>static</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>define</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>final</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>No VisualG, qual comando exibe uma mensagem na tela?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>escrever()</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>mostrar()</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>imprima()</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>escreva()</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>O que o comando 'break' faz em estruturas de repetição?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Reinicia o laço</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Finaliza o laço</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Pausa temporariamente</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Repete o bloco atual</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Qual destas estruturas representa um laço 'para' em Python?</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>for i = 1 até 10</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>for(i=0;i&lt;10;i++)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>for i in range(10):</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>loop 10 times</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Qual é o resultado de: print(10 // 3) em Python?</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Em C, qual operador é usado para acessar itens de um array?</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>()</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>&lt;&gt;</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Em VisualG, qual destas é a estrutura correta do 'enquanto'?</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>enquanto(condição) { }</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>enquanto condição faça</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>while(condição)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>loop enquanto</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Em Python, qual é a função usada para ler entrada do usuário?</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>scan()</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>input()</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>read()</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>escreva()</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Qual o valor final da variável x no código em C: int x=5; x+=3;?</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>No VisualG, qual comando inicia um algoritmo?</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>início</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>algoritmo</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>programa</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Em Python, qual destas estruturas representa uma condição?</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>if x &gt; 10:</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>se (x &gt; 10)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>if (x &gt; 10)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>condição(x &gt; 10)</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Em C, o que significa '&amp;&amp;'?</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>OU lógico</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NÃO lógico</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>E lógico</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Comparação</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Qual é a saída de: print(5 != 5) em Python?</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Erro</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Em lógica de programação, um algoritmo deve ser:</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Confuso e longo</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ambíguo</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sequência de passos claros</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Sempre recursivo</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
